--- a/Figure 3/3B - No. tissues infected histogram/Fig 3B - No. tissues histogram.xlsx
+++ b/Figure 3/3B - No. tissues infected histogram/Fig 3B - No. tissues histogram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Shared\Microsporidia database\Figure 3 (Jason)\3B - No. tissues infected histogram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF95C3BF-0428-4866-AB99-61773B514A1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF0E015-0EE8-4247-BF43-1B93978BDEA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="660" windowWidth="14415" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="2385" windowWidth="14775" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grouped bar chart" sheetId="2" r:id="rId1"/>
@@ -8848,16 +8848,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>668</c:v>
+                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>231</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14184,7 +14184,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14205,7 +14205,7 @@
         <v>2687</v>
       </c>
       <c r="B2">
-        <v>668</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -14213,7 +14213,7 @@
         <v>2688</v>
       </c>
       <c r="B3">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14221,7 +14221,7 @@
         <v>2689</v>
       </c>
       <c r="B4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -14229,7 +14229,7 @@
         <v>2690</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
